--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H2">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I2">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J2">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N2">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O2">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P2">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q2">
-        <v>10.42998587098611</v>
+        <v>11.24370986474667</v>
       </c>
       <c r="R2">
-        <v>93.869872838875</v>
+        <v>101.19338878272</v>
       </c>
       <c r="S2">
-        <v>0.0594064531992432</v>
+        <v>0.06325803025469962</v>
       </c>
       <c r="T2">
-        <v>0.05940645319924319</v>
+        <v>0.06325803025469962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H3">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I3">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J3">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O3">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P3">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q3">
-        <v>16.33551330447167</v>
+        <v>15.46194934258</v>
       </c>
       <c r="R3">
-        <v>147.019619740245</v>
+        <v>139.15754408322</v>
       </c>
       <c r="S3">
-        <v>0.09304278247463822</v>
+        <v>0.08699019016634828</v>
       </c>
       <c r="T3">
-        <v>0.09304278247463822</v>
+        <v>0.08699019016634826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H4">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I4">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J4">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N4">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O4">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P4">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q4">
-        <v>5.325029029234444</v>
+        <v>7.054210550746667</v>
       </c>
       <c r="R4">
-        <v>47.92526126311</v>
+        <v>63.48789495672001</v>
       </c>
       <c r="S4">
-        <v>0.0303299632159443</v>
+        <v>0.03968756485270693</v>
       </c>
       <c r="T4">
-        <v>0.0303299632159443</v>
+        <v>0.03968756485270692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H5">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I5">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J5">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N5">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O5">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P5">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q5">
-        <v>7.911752011267223</v>
+        <v>7.459324738753333</v>
       </c>
       <c r="R5">
-        <v>71.205768101405</v>
+        <v>67.13392264878</v>
       </c>
       <c r="S5">
-        <v>0.04506325621100071</v>
+        <v>0.04196677037026331</v>
       </c>
       <c r="T5">
-        <v>0.04506325621100071</v>
+        <v>0.0419667703702633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.803655</v>
       </c>
       <c r="I6">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J6">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N6">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O6">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P6">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q6">
-        <v>3.028169807625</v>
+        <v>3.44885292912</v>
       </c>
       <c r="R6">
-        <v>27.253528268625</v>
+        <v>31.03967636208</v>
       </c>
       <c r="S6">
-        <v>0.01724765787616812</v>
+        <v>0.0194035283335015</v>
       </c>
       <c r="T6">
-        <v>0.01724765787616812</v>
+        <v>0.01940352833350151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.803655</v>
       </c>
       <c r="I7">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J7">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O7">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P7">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q7">
         <v>4.742739711495</v>
@@ -883,10 +883,10 @@
         <v>42.68465740345501</v>
       </c>
       <c r="S7">
-        <v>0.02701339658482986</v>
+        <v>0.02668304107531111</v>
       </c>
       <c r="T7">
-        <v>0.02701339658482987</v>
+        <v>0.02668304107531111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.803655</v>
       </c>
       <c r="I8">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J8">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N8">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O8">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P8">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q8">
-        <v>1.54603202061</v>
+        <v>2.16378179562</v>
       </c>
       <c r="R8">
-        <v>13.91428818549</v>
+        <v>19.47403616058</v>
       </c>
       <c r="S8">
-        <v>0.008805791303360211</v>
+        <v>0.01217361315245768</v>
       </c>
       <c r="T8">
-        <v>0.008805791303360212</v>
+        <v>0.01217361315245768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.803655</v>
       </c>
       <c r="I9">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J9">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N9">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O9">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P9">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q9">
-        <v>2.297043242655</v>
+        <v>2.288044985505</v>
       </c>
       <c r="R9">
-        <v>20.673389183895</v>
+        <v>20.592404869545</v>
       </c>
       <c r="S9">
-        <v>0.01308335347519703</v>
+        <v>0.01287272801044036</v>
       </c>
       <c r="T9">
-        <v>0.01308335347519704</v>
+        <v>0.01287272801044036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H10">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I10">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J10">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N10">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O10">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P10">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q10">
-        <v>0.8198031556388888</v>
+        <v>0.8653942766755557</v>
       </c>
       <c r="R10">
-        <v>7.378228400749999</v>
+        <v>7.78854849008</v>
       </c>
       <c r="S10">
-        <v>0.004669382911968318</v>
+        <v>0.004868778899020409</v>
       </c>
       <c r="T10">
-        <v>0.004669382911968317</v>
+        <v>0.004868778899020409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H11">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I11">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J11">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O11">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P11">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q11">
-        <v>1.283981159863333</v>
+        <v>1.190059386828334</v>
       </c>
       <c r="R11">
-        <v>11.55583043877</v>
+        <v>10.710534481455</v>
       </c>
       <c r="S11">
-        <v>0.007313218601217479</v>
+        <v>0.006695371332277983</v>
       </c>
       <c r="T11">
-        <v>0.007313218601217479</v>
+        <v>0.006695371332277982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H12">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I12">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J12">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N12">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O12">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P12">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q12">
-        <v>0.4185504808955555</v>
+        <v>0.5429412098422223</v>
       </c>
       <c r="R12">
-        <v>3.76695432806</v>
+        <v>4.88647088858</v>
       </c>
       <c r="S12">
-        <v>0.0023839533305611</v>
+        <v>0.003054631602191058</v>
       </c>
       <c r="T12">
-        <v>0.0023839533305611</v>
+        <v>0.003054631602191057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H13">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I13">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J13">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N13">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O13">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P13">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q13">
-        <v>0.6218684613477777</v>
+        <v>0.5741216212827778</v>
       </c>
       <c r="R13">
-        <v>5.59681615213</v>
+        <v>5.167094591544999</v>
       </c>
       <c r="S13">
-        <v>0.003541999011514417</v>
+        <v>0.003230055144241436</v>
       </c>
       <c r="T13">
-        <v>0.003541999011514417</v>
+        <v>0.003230055144241436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H14">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I14">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J14">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N14">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O14">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P14">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q14">
-        <v>31.49922464268612</v>
+        <v>32.92667404325334</v>
       </c>
       <c r="R14">
-        <v>283.493021784175</v>
+        <v>296.34006638928</v>
       </c>
       <c r="S14">
-        <v>0.179411289496911</v>
+        <v>0.1852481581141974</v>
       </c>
       <c r="T14">
-        <v>0.179411289496911</v>
+        <v>0.1852481581141974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H15">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I15">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J15">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O15">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P15">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q15">
-        <v>49.33429532848367</v>
+        <v>45.27958940604501</v>
       </c>
       <c r="R15">
-        <v>444.0086579563531</v>
+        <v>407.516304654405</v>
       </c>
       <c r="S15">
-        <v>0.2809951559667948</v>
+        <v>0.2547466691175161</v>
       </c>
       <c r="T15">
-        <v>0.2809951559667948</v>
+        <v>0.2547466691175161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H16">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I16">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J16">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N16">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O16">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P16">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q16">
-        <v>16.08192836457044</v>
+        <v>20.65792289475333</v>
       </c>
       <c r="R16">
-        <v>144.737355281134</v>
+        <v>185.92130605278</v>
       </c>
       <c r="S16">
-        <v>0.09159842942846766</v>
+        <v>0.1162231618562848</v>
       </c>
       <c r="T16">
-        <v>0.09159842942846766</v>
+        <v>0.1162231618562848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H17">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I17">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J17">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N17">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O17">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P17">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q17">
-        <v>23.89399726929523</v>
+        <v>21.84428068762167</v>
       </c>
       <c r="R17">
-        <v>215.045975423657</v>
+        <v>196.598526188595</v>
       </c>
       <c r="S17">
-        <v>0.1360939169121835</v>
+        <v>0.1228977077185419</v>
       </c>
       <c r="T17">
-        <v>0.1360939169121835</v>
+        <v>0.1228977077185419</v>
       </c>
     </row>
   </sheetData>
